--- a/testCase/CaseList/caselist.xlsx
+++ b/testCase/CaseList/caselist.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D690E74-D9C8-4344-BFA5-0EDF3C63DE39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqs/PycharmProjects/JYTest/testCase/CaseList/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="27680" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="CG2001" sheetId="1" r:id="rId1"/>
     <sheet name="CG2002" sheetId="2" r:id="rId2"/>
+    <sheet name="CG1044" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>acctNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,14 +199,59 @@
   </si>
   <si>
     <t>CG1044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callbackUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户成功_投资人</t>
+    <rPh sb="0" eb="1">
+      <t>kai'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou'zi'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.10.10.185:9101/depositDemo/merchant/notify.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +264,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,15 +292,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,22 +581,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -653,26 +721,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA3EB92-C14E-4F60-B0F8-E50E643276B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -808,4 +876,97 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2">
+        <f ca="1">RANDBETWEEN(13200000000,13299999999)</f>
+        <v>13299769260</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testCase/CaseList/caselist.xlsx
+++ b/testCase/CaseList/caselist.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqs/PycharmProjects/JYTest/testCase/CaseList/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F51D7724-1EA4-449B-B299-02AF305431BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="27680" windowHeight="17540"/>
+    <workbookView xWindow="1125" yWindow="465" windowWidth="27675" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG2001" sheetId="1" r:id="rId1"/>
     <sheet name="CG2002" sheetId="2" r:id="rId2"/>
     <sheet name="CG1044" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>acctNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,11 +242,43 @@
     <t>http://10.10.10.185:9101/depositDemo/merchant/notify.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>idNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merOrderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,22 +609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -721,26 +749,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,27 +907,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="24.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="12.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -907,66 +939,106 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2">
+        <f ca="1">RANDBETWEEN(0,9999999999)</f>
+        <v>6164161859</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <f ca="1">RANDBETWEEN(13200000000,13299999999)</f>
-        <v>13299769260</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>13210801664</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testCase/CaseList/caselist.xlsx
+++ b/testCase/CaseList/caselist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F51D7724-1EA4-449B-B299-02AF305431BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F5C08D-0CF9-4ADF-ADE3-EC3F705BFAE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="465" windowWidth="27675" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="465" windowWidth="27675" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG2001" sheetId="1" r:id="rId1"/>
     <sheet name="CG2002" sheetId="2" r:id="rId2"/>
-    <sheet name="CG1044" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>acctNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,83 +194,6 @@
   </si>
   <si>
     <t>CG1044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>callbackUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>responsePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户成功_投资人</t>
-    <rPh sb="0" eb="1">
-      <t>kai'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'g</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tou'zi'r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.10.10.185:9101/depositDemo/merchant/notify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merOrderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailAddr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,14 +214,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,19 +234,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,7 +523,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -904,141 +814,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="24.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
-    <col min="12" max="15" width="12.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <f ca="1">RANDBETWEEN(0,9999999999)</f>
-        <v>6164161859</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2">
-        <f ca="1">RANDBETWEEN(13200000000,13299999999)</f>
-        <v>13210801664</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-</worksheet>
 </file>